--- a/SUPPLEMENTARY_DATASHEET2/FIGURE2_BRAINIMAGES.xlsx
+++ b/SUPPLEMENTARY_DATASHEET2/FIGURE2_BRAINIMAGES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\16GBBACKUPUSB\BACKUP_USB_SEPTEMBER2014\May Baydoun_folder\UK_BIOBANK_PROJECT\UKB_PAPER4_LE8INFECTMRI\MANUSCRIPT\FIGURE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7C3517-18EC-40EA-BDE5-C04D5379E526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666E34EC-A4AC-4689-B274-F1554405D932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{EA9A597B-BB0C-4814-9586-9AB602E0334F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EA9A597B-BB0C-4814-9586-9AB602E0334F}"/>
   </bookViews>
   <sheets>
     <sheet name="BRAINIMAGES_DATA" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="117">
   <si>
     <t>parmseq</t>
   </si>
@@ -81,6 +81,9 @@
     <t>signif</t>
   </si>
   <si>
+    <t>myqvallargervolumes</t>
+  </si>
+  <si>
     <t>infectionburdentert</t>
   </si>
   <si>
@@ -381,7 +384,10 @@
     <t xml:space="preserve">Bolded results are presented on brain images given that had a p&lt;0.05, reached significance upon multiple testing correction and had an estimate &gt;0.02. </t>
   </si>
   <si>
-    <t>Lighter colors were used for effect size estimates &gt;=0.04.</t>
+    <t xml:space="preserve">Sample size was N=38705 for all models. </t>
+  </si>
+  <si>
+    <t>Lighter colors were used for effect size estimates &gt;=0.04. Those are highlihgted in blue or yellow depending on direction of association.</t>
   </si>
 </sst>
 </file>
@@ -405,12 +411,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -425,11 +443,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B3FC25-A4EC-4FC2-ADE8-B22965F562E7}">
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -755,12 +777,12 @@
     <col min="2" max="2" width="36.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -801,22 +823,25 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>-0.02</v>
@@ -848,22 +873,25 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P2">
+        <v>2.2053900000000002E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>-0.02</v>
@@ -895,116 +923,125 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="P3">
+        <v>4.3471100000000004E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6">
         <v>-0.05</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="6">
         <v>5.6130599999999996E-3</v>
       </c>
-      <c r="H4" s="2">
-        <v>38696</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="H4" s="6">
+        <v>38696</v>
+      </c>
+      <c r="I4" s="6">
         <v>-8.3568239000000002</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="7">
         <v>6.7000000000000004E-17</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="6">
         <v>-0.06</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="6">
         <v>-0.04</v>
       </c>
-      <c r="M4" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="N4" s="2">
-        <v>5.1020000000000004E-4</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="M4" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N4" s="6">
+        <v>5.1020000000000004E-4</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1.3040000000000001E-15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6">
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6">
         <v>-0.04</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="6">
         <v>5.6346599999999997E-3</v>
       </c>
-      <c r="H5" s="2">
-        <v>38696</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="H5" s="6">
+        <v>38696</v>
+      </c>
+      <c r="I5" s="6">
         <v>-7.4107336999999998</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="7">
         <v>1.3E-13</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="6">
         <v>-0.05</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="6">
         <v>-0.03</v>
       </c>
-      <c r="M5" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="N5" s="2">
-        <v>5.1020000000000004E-4</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M5" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N5" s="6">
+        <v>5.1020000000000004E-4</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1.57E-12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>-0.02</v>
@@ -1036,22 +1073,25 @@
       <c r="O6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P6">
+        <v>7.6990000000000007E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>-0.02</v>
@@ -1083,22 +1123,25 @@
       <c r="O7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P7">
+        <v>6.8393000000000002E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2">
         <v>-0.03</v>
@@ -1130,22 +1173,25 @@
       <c r="O8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P8" s="3">
+        <v>1.091E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <v>-0.02</v>
@@ -1177,22 +1223,25 @@
       <c r="O9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P9">
+        <v>5.0009999999999997E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10">
         <v>-0.02</v>
@@ -1224,22 +1273,25 @@
       <c r="O10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P10">
+        <v>3.3605000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2">
         <v>-0.03</v>
@@ -1271,22 +1323,25 @@
       <c r="O11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P11" s="2">
+        <v>1.6330000000000001E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12">
         <v>-0.02</v>
@@ -1318,22 +1373,25 @@
       <c r="O12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P12">
+        <v>2.2625E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13">
         <v>-0.01</v>
@@ -1365,22 +1423,25 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P13">
+        <v>4.015933E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <v>-0.02</v>
@@ -1412,22 +1473,25 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P14">
+        <v>1.8025700000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2">
         <v>-0.03</v>
@@ -1459,22 +1523,25 @@
       <c r="O15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P15" s="2">
+        <v>1.36E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2">
         <v>-0.03</v>
@@ -1506,22 +1573,25 @@
       <c r="O16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P16" s="3">
+        <v>2.3629999999999999E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2">
         <v>-0.03</v>
@@ -1553,22 +1623,25 @@
       <c r="O17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P17" s="3">
+        <v>2.9429999999999998E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18">
         <v>-0.02</v>
@@ -1600,22 +1673,25 @@
       <c r="O18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P18">
+        <v>2.6132E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1647,22 +1723,25 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P19">
+        <v>0.97547817999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="2">
         <v>-0.03</v>
@@ -1694,22 +1773,25 @@
       <c r="O20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P20" s="3">
+        <v>2.7189999999999999E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21">
         <v>-0.02</v>
@@ -1741,22 +1823,25 @@
       <c r="O21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P21">
+        <v>4.3161000000000002E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <v>-0.01</v>
@@ -1788,22 +1873,25 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P22">
+        <v>9.066834E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23">
         <v>-0.02</v>
@@ -1835,22 +1923,25 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P23">
+        <v>1.0343389999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2">
         <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24" s="2">
         <v>-0.03</v>
@@ -1882,69 +1973,75 @@
       <c r="O24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="P24" s="3">
+        <v>7.0249999999999997E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>1</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="2">
+      <c r="C25" s="6">
+        <v>24</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="6">
         <v>-0.04</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="6">
         <v>5.5628199999999996E-3</v>
       </c>
-      <c r="H25" s="2">
-        <v>38696</v>
-      </c>
-      <c r="I25" s="2">
+      <c r="H25" s="6">
+        <v>38696</v>
+      </c>
+      <c r="I25" s="6">
         <v>-7.7519776</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="7">
         <v>9.3000000000000004E-15</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="6">
         <v>-0.05</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="6">
         <v>-0.03</v>
       </c>
-      <c r="M25" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="N25" s="2">
-        <v>5.1020000000000004E-4</v>
-      </c>
-      <c r="O25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M25" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N25" s="6">
+        <v>5.1020000000000004E-4</v>
+      </c>
+      <c r="O25" s="6">
+        <v>1</v>
+      </c>
+      <c r="P25" s="7">
+        <v>1.2969999999999999E-13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" s="2">
         <v>-0.03</v>
@@ -1976,22 +2073,25 @@
       <c r="O26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P26" s="3">
+        <v>1.4819999999999999E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" s="2">
         <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27" s="2">
         <v>-0.03</v>
@@ -2023,22 +2123,25 @@
       <c r="O27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P27" s="2">
+        <v>1.437E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2">
         <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28" s="2">
         <v>-0.03</v>
@@ -2070,116 +2173,125 @@
       <c r="O28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="P28" s="2">
+        <v>1.062E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>1</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="6">
         <v>28</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="D29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="6">
         <v>-0.06</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="6">
         <v>5.7769900000000001E-3</v>
       </c>
-      <c r="H29" s="2">
-        <v>38696</v>
-      </c>
-      <c r="I29" s="2">
+      <c r="H29" s="6">
+        <v>38696</v>
+      </c>
+      <c r="I29" s="6">
         <v>-9.5931298999999992</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="7">
         <v>8.9999999999999997E-22</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="6">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="6">
         <v>-0.04</v>
       </c>
-      <c r="M29" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="N29" s="2">
-        <v>5.1020000000000004E-4</v>
-      </c>
-      <c r="O29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="M29" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N29" s="6">
+        <v>5.1020000000000004E-4</v>
+      </c>
+      <c r="O29" s="6">
+        <v>1</v>
+      </c>
+      <c r="P29" s="7">
+        <v>4.4279999999999998E-20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>1</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="6">
         <v>29</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="D30" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="6">
         <v>-0.05</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="6">
         <v>5.7301499999999998E-3</v>
       </c>
-      <c r="H30" s="2">
-        <v>38696</v>
-      </c>
-      <c r="I30" s="2">
+      <c r="H30" s="6">
+        <v>38696</v>
+      </c>
+      <c r="I30" s="6">
         <v>-9.5306975000000005</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="7">
         <v>1.6000000000000001E-21</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="6">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="6">
         <v>-0.04</v>
       </c>
-      <c r="M30" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="N30" s="2">
-        <v>5.1020000000000004E-4</v>
-      </c>
-      <c r="O30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M30" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N30" s="6">
+        <v>5.1020000000000004E-4</v>
+      </c>
+      <c r="O30" s="6">
+        <v>1</v>
+      </c>
+      <c r="P30" s="7">
+        <v>5.3890000000000003E-20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31">
         <v>-0.02</v>
@@ -2211,22 +2323,25 @@
       <c r="O31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P31">
+        <v>8.7717899999999998E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F32">
         <v>-0.02</v>
@@ -2258,22 +2373,25 @@
       <c r="O32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P32">
+        <v>2.03659E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2">
         <v>32</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F33" s="2">
         <v>-0.03</v>
@@ -2305,22 +2423,25 @@
       <c r="O33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P33" s="3">
+        <v>1.2500000000000001E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="2">
         <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34" s="2">
         <v>-0.03</v>
@@ -2352,22 +2473,25 @@
       <c r="O34" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P34" s="2">
+        <v>2.6809999999999999E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F35">
         <v>-0.02</v>
@@ -2399,22 +2523,25 @@
       <c r="O35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P35">
+        <v>1.42555E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F36">
         <v>-0.02</v>
@@ -2446,22 +2573,25 @@
       <c r="O36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P36">
+        <v>5.0009999999999997E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>1</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2">
         <v>36</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F37" s="2">
         <v>-0.03</v>
@@ -2493,22 +2623,25 @@
       <c r="O37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P37" s="3">
+        <v>1.2500000000000001E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2">
         <v>37</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F38" s="2">
         <v>-0.03</v>
@@ -2540,69 +2673,75 @@
       <c r="O38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="2">
+      <c r="P38" s="3">
+        <v>1.096E-6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="6">
         <v>38</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="2">
+      <c r="D39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="6">
         <v>-0.04</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="6">
         <v>5.7249099999999997E-3</v>
       </c>
-      <c r="H39" s="2">
-        <v>38696</v>
-      </c>
-      <c r="I39" s="2">
+      <c r="H39" s="6">
+        <v>38696</v>
+      </c>
+      <c r="I39" s="6">
         <v>-6.2594411000000001</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="7">
         <v>3.9E-10</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="6">
         <v>-0.05</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="6">
         <v>-0.02</v>
       </c>
-      <c r="M39" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="N39" s="2">
-        <v>5.1020000000000004E-4</v>
-      </c>
-      <c r="O39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M39" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="N39" s="6">
+        <v>5.1020000000000004E-4</v>
+      </c>
+      <c r="O39" s="6">
+        <v>1</v>
+      </c>
+      <c r="P39" s="7">
+        <v>3.4780000000000002E-9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2">
         <v>39</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F40" s="2">
         <v>-0.03</v>
@@ -2634,22 +2773,25 @@
       <c r="O40" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P40" s="2">
+        <v>1.433E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2">
         <v>40</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F41" s="2">
         <v>-0.03</v>
@@ -2681,22 +2823,25 @@
       <c r="O41" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P41" s="3">
+        <v>3.4979999999999998E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F42">
         <v>-0.02</v>
@@ -2728,22 +2873,25 @@
       <c r="O42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P42">
+        <v>1.15358E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F43">
         <v>-0.02</v>
@@ -2775,22 +2923,25 @@
       <c r="O43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P43">
+        <v>7.9117100000000006E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F44">
         <v>-0.02</v>
@@ -2822,22 +2973,25 @@
       <c r="O44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P44">
+        <v>2.6561999999999999E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F45">
         <v>-0.02</v>
@@ -2869,22 +3023,25 @@
       <c r="O45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P45">
+        <v>1.2858999999999999E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F46">
         <v>-0.01</v>
@@ -2916,22 +3073,25 @@
       <c r="O46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P46">
+        <v>4.4185580000000002E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C47">
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F47">
         <v>-0.02</v>
@@ -2963,22 +3123,25 @@
       <c r="O47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P47">
+        <v>9.2928400000000001E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C48" s="2">
         <v>47</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F48" s="2">
         <v>-0.03</v>
@@ -3010,22 +3173,25 @@
       <c r="O48" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P48" s="3">
+        <v>2.9429999999999998E-7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F49">
         <v>-0.02</v>
@@ -3057,22 +3223,25 @@
       <c r="O49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P49">
+        <v>4.8680000000000001E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50">
         <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F50">
         <v>0.02</v>
@@ -3104,22 +3273,25 @@
       <c r="O50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P50">
+        <v>9.1459999999999995E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C51">
         <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F51">
         <v>0.02</v>
@@ -3151,69 +3323,75 @@
       <c r="O51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
-        <v>1</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="2">
+      <c r="P51">
+        <v>7.5715999999999999E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
+        <v>1</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="4">
         <v>52</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="2">
+      <c r="D52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="4">
         <v>0.04</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="4">
         <v>5.3301599999999996E-3</v>
       </c>
-      <c r="H52" s="2">
-        <v>38696</v>
-      </c>
-      <c r="I52" s="2">
+      <c r="H52" s="4">
+        <v>38696</v>
+      </c>
+      <c r="I52" s="4">
         <v>7.8198292</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="5">
         <v>5.4000000000000002E-15</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="4">
         <v>0.03</v>
       </c>
-      <c r="L52" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="M52" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="N52" s="2">
-        <v>5.1020000000000004E-4</v>
-      </c>
-      <c r="O52" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L52" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="M52" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="N52" s="4">
+        <v>5.1020000000000004E-4</v>
+      </c>
+      <c r="O52" s="4">
+        <v>1</v>
+      </c>
+      <c r="P52" s="5">
+        <v>8.8569999999999995E-14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C53" s="2">
         <v>53</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F53" s="2">
         <v>0.03</v>
@@ -3245,22 +3423,25 @@
       <c r="O53" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P53" s="3">
+        <v>1.6600000000000001E-9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C54">
         <v>54</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F54">
         <v>0.02</v>
@@ -3292,22 +3473,25 @@
       <c r="O54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P54">
+        <v>2.9640000000000001E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C55">
         <v>55</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F55">
         <v>0.02</v>
@@ -3339,22 +3523,25 @@
       <c r="O55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P55">
+        <v>1.08562E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>1</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C56" s="2">
         <v>56</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F56" s="2">
         <v>0.03</v>
@@ -3386,22 +3573,25 @@
       <c r="O56" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P56" s="3">
+        <v>2.8700000000000001E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>1</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C57" s="2">
         <v>57</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F57" s="2">
         <v>0.03</v>
@@ -3433,22 +3623,25 @@
       <c r="O57" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P57" s="3">
+        <v>9.1910000000000006E-6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>1</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C58" s="2">
         <v>58</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F58" s="2">
         <v>0.03</v>
@@ -3480,22 +3673,25 @@
       <c r="O58" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P58" s="3">
+        <v>6.8759999999999999E-7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C59">
         <v>59</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F59">
         <v>0.01</v>
@@ -3527,22 +3723,25 @@
       <c r="O59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P59">
+        <v>0.28284028999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C60">
         <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3574,22 +3773,25 @@
       <c r="O60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P60">
+        <v>0.61437569000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C61">
         <v>61</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F61">
         <v>0.02</v>
@@ -3621,22 +3823,25 @@
       <c r="O61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P61">
+        <v>1.1296779999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C62">
         <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F62">
         <v>0.02</v>
@@ -3668,22 +3873,25 @@
       <c r="O62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P62">
+        <v>1.4483600000000001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C63">
         <v>63</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F63">
         <v>0.02</v>
@@ -3715,22 +3923,25 @@
       <c r="O63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P63">
+        <v>6.0009900000000003E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C64">
         <v>64</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F64">
         <v>0.01</v>
@@ -3762,22 +3973,25 @@
       <c r="O64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P64">
+        <v>0.11194257000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C65">
         <v>65</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F65">
         <v>0.01</v>
@@ -3809,22 +4023,25 @@
       <c r="O65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P65">
+        <v>3.481012E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C66">
         <v>66</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F66">
         <v>-0.01</v>
@@ -3856,22 +4073,25 @@
       <c r="O66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P66">
+        <v>0.31766854999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C67">
         <v>67</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F67">
         <v>-0.01</v>
@@ -3903,22 +4123,25 @@
       <c r="O67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P67">
+        <v>0.12252304999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>1</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C68" s="2">
         <v>68</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F68" s="2">
         <v>0.03</v>
@@ -3950,22 +4173,25 @@
       <c r="O68" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P68" s="3">
+        <v>3.5659999999999998E-6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C69">
         <v>69</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F69">
         <v>0.01</v>
@@ -3997,22 +4223,25 @@
       <c r="O69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P69">
+        <v>0.18741165000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C70">
         <v>70</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F70">
         <v>0.01</v>
@@ -4044,22 +4273,25 @@
       <c r="O70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P70">
+        <v>9.1688749999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C71">
         <v>71</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F71">
         <v>0.02</v>
@@ -4091,22 +4323,25 @@
       <c r="O71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P71">
+        <v>7.1290000000000004E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>1</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C72" s="2">
         <v>72</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F72" s="2">
         <v>0.03</v>
@@ -4138,22 +4373,25 @@
       <c r="O72" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P72" s="3">
+        <v>5.1600000000000001E-7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C73">
         <v>73</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F73">
         <v>0.01</v>
@@ -4185,22 +4423,25 @@
       <c r="O73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P73">
+        <v>0.25727768000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C74">
         <v>74</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F74">
         <v>0.02</v>
@@ -4232,22 +4473,25 @@
       <c r="O74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P74">
+        <v>1.1717679999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C75">
         <v>75</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F75">
         <v>0.01</v>
@@ -4279,22 +4523,25 @@
       <c r="O75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P75">
+        <v>6.0744619999999999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C76">
         <v>76</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -4326,116 +4573,125 @@
       <c r="O76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="2">
-        <v>1</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="2">
+      <c r="P76">
+        <v>0.50334663000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="4">
+        <v>1</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="4">
         <v>77</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="2">
+      <c r="D77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="4">
         <v>0.06</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77" s="4">
         <v>5.6255699999999999E-3</v>
       </c>
-      <c r="H77" s="2">
-        <v>38696</v>
-      </c>
-      <c r="I77" s="2">
+      <c r="H77" s="4">
+        <v>38696</v>
+      </c>
+      <c r="I77" s="4">
         <v>10.524305999999999</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77" s="5">
         <v>7.2000000000000003E-26</v>
       </c>
-      <c r="K77" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="L77" s="2">
+      <c r="K77" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="L77" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M77" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="N77" s="2">
-        <v>5.1020000000000004E-4</v>
-      </c>
-      <c r="O77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="2">
-        <v>1</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C78" s="2">
+      <c r="M77" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="N77" s="4">
+        <v>5.1020000000000004E-4</v>
+      </c>
+      <c r="O77" s="4">
+        <v>1</v>
+      </c>
+      <c r="P77" s="5">
+        <v>7.0899999999999994E-24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="4">
+        <v>1</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="4">
         <v>78</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G78" s="2">
+      <c r="D78" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G78" s="4">
         <v>5.5161999999999997E-3</v>
       </c>
-      <c r="H78" s="2">
-        <v>38696</v>
-      </c>
-      <c r="I78" s="2">
+      <c r="H78" s="4">
+        <v>38696</v>
+      </c>
+      <c r="I78" s="4">
         <v>8.9138978000000009</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="5">
         <v>5.0999999999999998E-19</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K78" s="4">
         <v>0.04</v>
       </c>
-      <c r="L78" s="2">
+      <c r="L78" s="4">
         <v>0.06</v>
       </c>
-      <c r="M78" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="N78" s="2">
-        <v>5.1020000000000004E-4</v>
-      </c>
-      <c r="O78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M78" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="N78" s="4">
+        <v>5.1020000000000004E-4</v>
+      </c>
+      <c r="O78" s="4">
+        <v>1</v>
+      </c>
+      <c r="P78" s="5">
+        <v>1.259E-17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C79">
         <v>79</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F79">
         <v>0.01</v>
@@ -4467,22 +4723,25 @@
       <c r="O79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P79">
+        <v>0.20185866999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C80">
         <v>80</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -4514,22 +4773,25 @@
       <c r="O80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P80">
+        <v>0.91506244999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C81">
         <v>81</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F81">
         <v>0.02</v>
@@ -4561,22 +4823,25 @@
       <c r="O81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P81">
+        <v>7.1290000000000004E-5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C82">
         <v>82</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -4608,22 +4873,25 @@
       <c r="O82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P82">
+        <v>0.61558020999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C83">
         <v>83</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E83" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F83">
         <v>0.01</v>
@@ -4655,22 +4923,25 @@
       <c r="O83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P83">
+        <v>3.2703290000000003E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C84">
         <v>84</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -4702,22 +4973,25 @@
       <c r="O84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P84">
+        <v>0.56790401000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C85">
         <v>85</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F85">
         <v>0.01</v>
@@ -4749,22 +5023,25 @@
       <c r="O85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P85">
+        <v>0.15585455000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C86">
         <v>86</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F86">
         <v>0.01</v>
@@ -4796,22 +5073,25 @@
       <c r="O86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P86">
+        <v>2.0322819999999998E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C87">
         <v>87</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F87">
         <v>0.01</v>
@@ -4843,22 +5123,25 @@
       <c r="O87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P87">
+        <v>0.10396024</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C88">
         <v>88</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F88">
         <v>0.02</v>
@@ -4890,22 +5173,25 @@
       <c r="O88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P88">
+        <v>2.688E-5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C89">
         <v>89</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F89">
         <v>0.02</v>
@@ -4937,22 +5223,25 @@
       <c r="O89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P89">
+        <v>5.8315999999999999E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C90">
         <v>90</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -4984,22 +5273,25 @@
       <c r="O90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P90">
+        <v>0.61437569000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C91">
         <v>91</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -5031,22 +5323,25 @@
       <c r="O91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P91">
+        <v>0.52808031</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C92">
         <v>92</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F92">
         <v>0.02</v>
@@ -5078,22 +5373,25 @@
       <c r="O92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P92">
+        <v>1.0076E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C93">
         <v>93</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -5125,22 +5423,25 @@
       <c r="O93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P93">
+        <v>0.48780649999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C94">
         <v>94</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -5172,22 +5473,25 @@
       <c r="O94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P94">
+        <v>0.61558020999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C95">
         <v>95</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E95" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -5219,22 +5523,25 @@
       <c r="O95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P95">
+        <v>0.78839596999999995</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C96">
         <v>96</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -5266,22 +5573,25 @@
       <c r="O96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P96">
+        <v>0.73887353</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C97">
         <v>97</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -5313,8 +5623,14 @@
       <c r="O97">
         <v>0</v>
       </c>
+      <c r="P97">
+        <v>0.52808031</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:J96">
+    <sortCondition ref="J1:J96"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5322,22 +5638,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FDEDA1-2780-4E85-A381-0AD96199F4F1}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
